--- a/data/FundList.xlsx
+++ b/data/FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Data/fund/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8891BA52-48A8-449F-A210-9BC348878D93}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B16288BE-3D19-48E8-A4BF-1645FF361585}"/>
   <bookViews>
     <workbookView xWindow="3135" yWindow="1050" windowWidth="15240" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,19 +155,19 @@
     <t>工银战略转型股票A</t>
   </si>
   <si>
-    <t>320007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺安成长混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>161725</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>招商中证白酒指数(LOF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧医疗创新股票C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +509,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -665,18 +665,18 @@
     </row>
     <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/FundList.xlsx
+++ b/data/FundList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Data/fund/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B16288BE-3D19-48E8-A4BF-1645FF361585}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5B69C525-2F23-4CF0-865B-7043C8533E67}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="1050" windowWidth="15240" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="1590" windowWidth="15240" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,22 @@
   </si>
   <si>
     <t>中欧医疗创新股票C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160424</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009329</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004889</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009331</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -679,6 +695,26 @@
         <v>37</v>
       </c>
     </row>
+    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/FundList.xlsx
+++ b/data/FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5B69C525-2F23-4CF0-865B-7043C8533E67}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{55DD41E5-E2B5-496A-86B8-7D9F252307A5}"/>
   <bookViews>
     <workbookView xWindow="450" yWindow="1590" windowWidth="15240" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,14 @@
   </si>
   <si>
     <t>009331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001508</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -715,6 +723,16 @@
         <v>43</v>
       </c>
     </row>
+    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/FundList.xlsx
+++ b/data/FundList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{55DD41E5-E2B5-496A-86B8-7D9F252307A5}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A169895D-D06C-4048-A664-072A50C525AA}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="1590" windowWidth="15240" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1170" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>001508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -733,6 +737,11 @@
         <v>45</v>
       </c>
     </row>
+    <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/FundList.xlsx
+++ b/data/FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A169895D-D06C-4048-A664-072A50C525AA}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{269F98BE-29B0-4034-88DB-D3DB540DFB5E}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1170" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="435" windowWidth="22965" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,14 @@
   </si>
   <si>
     <t>008888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000083</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -742,6 +750,16 @@
         <v>46</v>
       </c>
     </row>
+    <row r="28" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
